--- a/data/religion_tally.xlsx
+++ b/data/religion_tally.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/craigaj_byui_edu/Documents/MyFiles/Data/Data File Cabinet/qChi-Square Test for Independence/Religion-among-U.S.-teens-and-their-parents-Public-Data-Release/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C587FD3-2DD1-497B-841D-F2BFF4B26099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0880AC2E-D027-4913-B172-DEE6A947C11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3370" yWindow="2700" windowWidth="14400" windowHeight="7370"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="religion_tally" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>religion</t>
   </si>
@@ -28,88 +28,46 @@
     <t>count</t>
   </si>
   <si>
-    <t>proportion</t>
-  </si>
-  <si>
     <t>Agnostic (not sure if there is a God)</t>
   </si>
   <si>
-    <t>58 / 1811 = 0.032</t>
-  </si>
-  <si>
     <t>Atheist (do not believe in God)</t>
   </si>
   <si>
-    <t>55 / 1811 = 0.03</t>
-  </si>
-  <si>
     <t>Buddhist</t>
   </si>
   <si>
-    <t>8 / 1811 = 0.004</t>
-  </si>
-  <si>
     <t>Don't know/refused</t>
   </si>
   <si>
-    <t>7 / 1811 = 0.004</t>
-  </si>
-  <si>
     <t>Hindu</t>
   </si>
   <si>
-    <t>11 / 1811 = 0.006</t>
-  </si>
-  <si>
     <t>Jewish (Judaism)</t>
   </si>
   <si>
-    <t>21 / 1811 = 0.012</t>
-  </si>
-  <si>
     <t>Muslim (Islam)</t>
   </si>
   <si>
-    <t>14 / 1811 = 0.008</t>
-  </si>
-  <si>
     <t>Nothing in particular</t>
   </si>
   <si>
-    <t>291 / 1811 = 0.161</t>
-  </si>
-  <si>
     <t>Orthodox (Greek, Russian, or some other Orthodox church)</t>
   </si>
   <si>
     <t>Other Christian</t>
   </si>
   <si>
-    <t>34 / 1811 = 0.019</t>
-  </si>
-  <si>
     <t>Other non-Christian</t>
   </si>
   <si>
-    <t>18 / 1811 = 0.01</t>
-  </si>
-  <si>
     <t>Protestant</t>
   </si>
   <si>
-    <t>737 / 1811 = 0.407</t>
-  </si>
-  <si>
     <t>Roman Catholic</t>
   </si>
   <si>
-    <t>498 / 1811 = 0.275</t>
-  </si>
-  <si>
     <t>The Church of Jesus Christ of Latter-day Saints</t>
-  </si>
-  <si>
-    <t>51 / 1811 = 0.028</t>
   </si>
   <si>
     <t>source</t>
@@ -124,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -958,8 +916,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,10 +925,9 @@
   <cols>
     <col min="1" max="1" width="50.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,170 +935,125 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>291</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>737</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>498</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/religion_tally.xlsx
+++ b/data/religion_tally.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0880AC2E-D027-4913-B172-DEE6A947C11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB39BC91-2B8F-42A4-B900-5036F70BCFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="religion_tally" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>religion</t>
   </si>
@@ -77,6 +77,39 @@
   </si>
   <si>
     <t>Accessed Feburary 9, 2022</t>
+  </si>
+  <si>
+    <t>religion_code</t>
+  </si>
+  <si>
+    <t>Agnostic</t>
+  </si>
+  <si>
+    <t>Atheist</t>
+  </si>
+  <si>
+    <t>Jewish</t>
+  </si>
+  <si>
+    <t>Muslim</t>
+  </si>
+  <si>
+    <t>Orthodox</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Non-Christian</t>
+  </si>
+  <si>
+    <t>Church of Jesus Christ</t>
+  </si>
+  <si>
+    <t>Nothing in Particular</t>
+  </si>
+  <si>
+    <t>Don't know / Refused</t>
   </si>
 </sst>
 </file>
@@ -917,142 +950,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="50.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
         <v>737</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
         <v>498</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
         <v>51</v>
       </c>
     </row>
